--- a/pali-class/vocab/vocab-class18.xlsx
+++ b/pali-class/vocab/vocab-class18.xlsx
@@ -49,39 +49,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -91,24 +91,24 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>uppajjamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>uppajjamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>aḍḍha 1.1</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -262,15 +262,15 @@
     <t>anuttara</t>
   </si>
   <si>
+    <t>appamāṇa</t>
+  </si>
+  <si>
     <t>maha 2</t>
   </si>
   <si>
     <t>vipula 1</t>
   </si>
   <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
     <t>anavajja 1</t>
   </si>
   <si>
@@ -304,6 +304,12 @@
     <t>oḷārika 2</t>
   </si>
   <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -322,57 +328,51 @@
     <t>acchariya 1</t>
   </si>
   <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uḷāra 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>dullabha 1</t>
   </si>
   <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>uḷāra 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -601,66 +601,66 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>paññāyati 1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>paññāyati 1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -697,12 +697,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -745,6 +748,9 @@
     <t>antamaso 1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -787,12 +793,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -829,15 +829,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -880,63 +880,63 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
+    <t>kāreti 2</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -958,12 +958,12 @@
     <t>tejas 1</t>
   </si>
   <si>
+    <t>āpas</t>
+  </si>
+  <si>
     <t>vāyas</t>
   </si>
   <si>
-    <t>āpas</t>
-  </si>
-  <si>
     <t>rāja 1</t>
   </si>
   <si>
@@ -973,531 +973,531 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>māsa 1.1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>vaṇṇa 03</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>māsa 1.1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>vaṇṇa 03</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>majjha 2</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sara 2.1</t>
   </si>
   <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>majjha 2</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
     <t>sīha 1</t>
   </si>
   <si>
@@ -1540,189 +1540,189 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>paṭinissajjati</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>paṭinissajjati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1741,12 +1741,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1771,39 +1771,39 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1816,6 +1816,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1825,36 +1828,33 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -1912,18 +1912,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -1939,6 +1939,9 @@
     <t>sārathi 1</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -1957,9 +1960,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1981,12 +1981,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -2029,6 +2029,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -2050,9 +2053,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2119,6 +2119,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -2128,24 +2131,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2245,27 +2245,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2281,36 +2284,33 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2329,12 +2329,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2356,15 +2356,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2398,6 +2398,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2449,12 +2455,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2497,54 +2497,54 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>katvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>katvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2569,24 +2569,24 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2611,21 +2611,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2635,48 +2635,48 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tatra 2</t>
+  </si>
+  <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>tatra 2</t>
-  </si>
-  <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2824,6 +2824,9 @@
     <t>padhāna 1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -2887,24 +2890,21 @@
     <t>vana 1.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
     <t>vassa 3</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>kusala 4</t>
   </si>
   <si>
@@ -3163,39 +3163,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3205,24 +3205,24 @@
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>arising; appearing; coming into being</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -3256,12 +3256,12 @@
     <t>half</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3376,15 +3376,15 @@
     <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
   </si>
   <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
+  </si>
+  <si>
     <t>great; venerable; honourable; respected</t>
   </si>
   <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
@@ -3418,6 +3418,12 @@
     <t>(of food) solid; heavy; substantial</t>
   </si>
   <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -3436,57 +3442,51 @@
     <t>wonderful; marvellous</t>
   </si>
   <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>excellent; lofty; high; noble</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>difficult to find (for); hard to obtain (for); rare (for)</t>
   </si>
   <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>excellent; lofty; high; noble</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3715,66 +3715,66 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is clearly known; is evident; is perceived; there is</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is clearly known; is evident; is perceived; there is</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -3811,12 +3811,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -3829,9 +3832,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -3859,6 +3859,9 @@
     <t>even so much as; even with; even down to; with as little as</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -3901,9 +3904,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -3940,15 +3940,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -3991,63 +3991,63 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
+    <t>performs; practices</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>performs; practices</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -4069,12 +4069,12 @@
     <t>flame; fire; heat</t>
   </si>
   <si>
+    <t>water; liquid</t>
+  </si>
+  <si>
     <t>air; wind</t>
   </si>
   <si>
-    <t>water; liquid</t>
-  </si>
-  <si>
     <t>king; ruler</t>
   </si>
   <si>
@@ -4084,528 +4084,528 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>appearance; complexion; lit. cover</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>appearance; complexion; lit. cover</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>sound; voice; tone</t>
   </si>
   <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
     <t>lion</t>
   </si>
   <si>
@@ -4648,189 +4648,189 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>gives up; relinquishes; drops; abandons</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>gives up; relinquishes; drops; abandons</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4849,12 +4849,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -4879,36 +4879,36 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -4921,6 +4921,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -4930,36 +4933,33 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -5017,18 +5017,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -5044,6 +5044,9 @@
     <t>charioteer; driver</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -5062,9 +5065,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5086,12 +5086,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -5134,6 +5134,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -5155,9 +5158,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5224,6 +5224,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -5233,24 +5236,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -5350,27 +5350,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -5386,36 +5389,33 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -5434,12 +5434,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -5461,15 +5461,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -5503,6 +5503,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -5551,12 +5557,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -5599,48 +5599,48 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -5665,24 +5665,24 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -5707,21 +5707,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -5731,45 +5731,45 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that case; in that regard; in this matter; in this connection</t>
+  </si>
+  <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in that case; in that regard; in this matter; in this connection</t>
-  </si>
-  <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5917,6 +5917,9 @@
     <t>making effort; exerting; striving; trying (to)</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -5980,22 +5983,19 @@
     <t>wood; forest; grove</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>good; benefit; merit; good deed; doing good</t>
@@ -10706,7 +10706,7 @@
         <v>1029</v>
       </c>
       <c r="C231" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="D231" t="s">
         <v>1029</v>
@@ -10723,7 +10723,7 @@
         <v>1029</v>
       </c>
       <c r="C232" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D232" t="s">
         <v>1029</v>
@@ -10740,7 +10740,7 @@
         <v>1029</v>
       </c>
       <c r="C233" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D233" t="s">
         <v>1029</v>
@@ -10757,7 +10757,7 @@
         <v>1029</v>
       </c>
       <c r="C234" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D234" t="s">
         <v>1029</v>
@@ -10774,7 +10774,7 @@
         <v>1029</v>
       </c>
       <c r="C235" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D235" t="s">
         <v>1029</v>
@@ -10791,7 +10791,7 @@
         <v>1029</v>
       </c>
       <c r="C236" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D236" t="s">
         <v>1029</v>
@@ -10808,7 +10808,7 @@
         <v>1029</v>
       </c>
       <c r="C237" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D237" t="s">
         <v>1029</v>
@@ -10825,7 +10825,7 @@
         <v>1029</v>
       </c>
       <c r="C238" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D238" t="s">
         <v>1029</v>
@@ -10842,7 +10842,7 @@
         <v>1029</v>
       </c>
       <c r="C239" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D239" t="s">
         <v>1029</v>
@@ -10859,7 +10859,7 @@
         <v>1029</v>
       </c>
       <c r="C240" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D240" t="s">
         <v>1029</v>
@@ -10876,7 +10876,7 @@
         <v>1029</v>
       </c>
       <c r="C241" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D241" t="s">
         <v>1029</v>
@@ -10893,7 +10893,7 @@
         <v>1029</v>
       </c>
       <c r="C242" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D242" t="s">
         <v>1029</v>
@@ -10910,7 +10910,7 @@
         <v>1029</v>
       </c>
       <c r="C243" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D243" t="s">
         <v>1029</v>
@@ -10927,7 +10927,7 @@
         <v>1029</v>
       </c>
       <c r="C244" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D244" t="s">
         <v>1029</v>
@@ -10944,7 +10944,7 @@
         <v>1029</v>
       </c>
       <c r="C245" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D245" t="s">
         <v>1029</v>
@@ -10961,7 +10961,7 @@
         <v>1029</v>
       </c>
       <c r="C246" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D246" t="s">
         <v>1029</v>
@@ -10978,7 +10978,7 @@
         <v>1029</v>
       </c>
       <c r="C247" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D247" t="s">
         <v>1029</v>
@@ -10995,7 +10995,7 @@
         <v>1029</v>
       </c>
       <c r="C248" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D248" t="s">
         <v>1029</v>
@@ -11012,7 +11012,7 @@
         <v>1029</v>
       </c>
       <c r="C249" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D249" t="s">
         <v>1029</v>
@@ -11029,7 +11029,7 @@
         <v>1029</v>
       </c>
       <c r="C250" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D250" t="s">
         <v>1029</v>
@@ -11046,7 +11046,7 @@
         <v>1029</v>
       </c>
       <c r="C251" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D251" t="s">
         <v>1029</v>
@@ -11063,7 +11063,7 @@
         <v>1029</v>
       </c>
       <c r="C252" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D252" t="s">
         <v>1029</v>
@@ -11080,7 +11080,7 @@
         <v>1029</v>
       </c>
       <c r="C253" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D253" t="s">
         <v>1029</v>
@@ -11097,7 +11097,7 @@
         <v>1029</v>
       </c>
       <c r="C254" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="D254" t="s">
         <v>1029</v>
@@ -14956,7 +14956,7 @@
         <v>1027</v>
       </c>
       <c r="C481" t="s">
-        <v>1521</v>
+        <v>1384</v>
       </c>
       <c r="D481" t="s">
         <v>2063</v>
@@ -14973,7 +14973,7 @@
         <v>1027</v>
       </c>
       <c r="C482" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D482" t="s">
         <v>2063</v>
@@ -14990,7 +14990,7 @@
         <v>1027</v>
       </c>
       <c r="C483" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D483" t="s">
         <v>2063</v>
@@ -15007,7 +15007,7 @@
         <v>1027</v>
       </c>
       <c r="C484" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D484" t="s">
         <v>2063</v>
@@ -15024,7 +15024,7 @@
         <v>1027</v>
       </c>
       <c r="C485" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D485" t="s">
         <v>2063</v>
@@ -15041,7 +15041,7 @@
         <v>1027</v>
       </c>
       <c r="C486" t="s">
-        <v>1387</v>
+        <v>1525</v>
       </c>
       <c r="D486" t="s">
         <v>2063</v>
@@ -15361,7 +15361,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C505" t="s">
         <v>1544</v>
@@ -15531,7 +15531,7 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C515" t="s">
         <v>1554</v>
@@ -20430,7 +20430,7 @@
         <v>1037</v>
       </c>
       <c r="C803" t="s">
-        <v>1359</v>
+        <v>1841</v>
       </c>
       <c r="D803" t="s">
         <v>2085</v>
@@ -20447,7 +20447,7 @@
         <v>1037</v>
       </c>
       <c r="C804" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D804" t="s">
         <v>2085</v>
@@ -20464,7 +20464,7 @@
         <v>1037</v>
       </c>
       <c r="C805" t="s">
-        <v>1842</v>
+        <v>1358</v>
       </c>
       <c r="D805" t="s">
         <v>2085</v>
@@ -20940,7 +20940,7 @@
         <v>1034</v>
       </c>
       <c r="C833" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="D833" t="s">
         <v>1034</v>
@@ -20957,7 +20957,7 @@
         <v>1034</v>
       </c>
       <c r="C834" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="D834" t="s">
         <v>1034</v>
@@ -20991,7 +20991,7 @@
         <v>1034</v>
       </c>
       <c r="C836" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="D836" t="s">
         <v>1034</v>
@@ -21008,7 +21008,7 @@
         <v>1034</v>
       </c>
       <c r="C837" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="D837" t="s">
         <v>1034</v>
@@ -21739,7 +21739,7 @@
         <v>1029</v>
       </c>
       <c r="C880" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D880" t="s">
         <v>1029</v>
@@ -21756,7 +21756,7 @@
         <v>1029</v>
       </c>
       <c r="C881" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="D881" t="s">
         <v>1029</v>

--- a/pali-class/vocab/vocab-class18.xlsx
+++ b/pali-class/vocab/vocab-class18.xlsx
@@ -265,9 +265,6 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
@@ -535,12 +532,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2677,6 +2674,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2716,12 +2716,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>tiṇa 1</t>
   </si>
   <si>
@@ -3379,9 +3379,6 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
@@ -3649,12 +3646,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -5770,6 +5767,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5809,10 +5809,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>grass; straw</t>
@@ -8765,13 +8765,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C117" t="s">
         <v>1158</v>
       </c>
       <c r="D117" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="E117" t="s">
         <v>2124</v>
@@ -8782,13 +8782,13 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C118" t="s">
         <v>1159</v>
       </c>
       <c r="D118" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="E118" t="s">
         <v>2124</v>
@@ -8935,7 +8935,7 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C127" t="s">
         <v>1168</v>
@@ -8952,7 +8952,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C128" t="s">
         <v>1169</v>
@@ -9394,13 +9394,13 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C154" t="s">
         <v>1195</v>
       </c>
       <c r="D154" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="E154" t="s">
         <v>2124</v>
@@ -9417,7 +9417,7 @@
         <v>1196</v>
       </c>
       <c r="D155" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E155" t="s">
         <v>2124</v>
@@ -9434,7 +9434,7 @@
         <v>1197</v>
       </c>
       <c r="D156" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="E156" t="s">
         <v>2124</v>
@@ -9451,7 +9451,7 @@
         <v>1198</v>
       </c>
       <c r="D157" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="E157" t="s">
         <v>2124</v>
@@ -9462,13 +9462,13 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C158" t="s">
         <v>1199</v>
       </c>
       <c r="D158" t="s">
-        <v>2068</v>
+        <v>1029</v>
       </c>
       <c r="E158" t="s">
         <v>2124</v>
@@ -9530,13 +9530,13 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C162" t="s">
         <v>1203</v>
       </c>
       <c r="D162" t="s">
-        <v>1029</v>
+        <v>2069</v>
       </c>
       <c r="E162" t="s">
         <v>2124</v>
@@ -9587,7 +9587,7 @@
         <v>1206</v>
       </c>
       <c r="D165" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E165" t="s">
         <v>2124</v>
@@ -9621,7 +9621,7 @@
         <v>1208</v>
       </c>
       <c r="D167" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="E167" t="s">
         <v>2124</v>
@@ -9632,16 +9632,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C168" t="s">
         <v>1209</v>
       </c>
       <c r="D168" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="E168" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -9785,13 +9785,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C177" t="s">
         <v>1218</v>
       </c>
       <c r="D177" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="E177" t="s">
         <v>2125</v>
@@ -9893,7 +9893,7 @@
         <v>1224</v>
       </c>
       <c r="D183" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="E183" t="s">
         <v>2125</v>
@@ -9927,7 +9927,7 @@
         <v>1226</v>
       </c>
       <c r="D185" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="E185" t="s">
         <v>2125</v>
@@ -9944,7 +9944,7 @@
         <v>1227</v>
       </c>
       <c r="D186" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="E186" t="s">
         <v>2125</v>
@@ -9961,7 +9961,7 @@
         <v>1228</v>
       </c>
       <c r="D187" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="E187" t="s">
         <v>2125</v>
@@ -9978,7 +9978,7 @@
         <v>1229</v>
       </c>
       <c r="D188" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E188" t="s">
         <v>2125</v>
@@ -9995,7 +9995,7 @@
         <v>1230</v>
       </c>
       <c r="D189" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E189" t="s">
         <v>2125</v>
@@ -10006,16 +10006,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C190" t="s">
         <v>1231</v>
       </c>
       <c r="D190" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="E190" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -10363,13 +10363,13 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C211" t="s">
         <v>1252</v>
       </c>
       <c r="D211" t="s">
-        <v>2080</v>
+        <v>1029</v>
       </c>
       <c r="E211" t="s">
         <v>2126</v>
@@ -10689,7 +10689,7 @@
         <v>1029</v>
       </c>
       <c r="C230" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="D230" t="s">
         <v>1029</v>
@@ -10706,7 +10706,7 @@
         <v>1029</v>
       </c>
       <c r="C231" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="D231" t="s">
         <v>1029</v>
@@ -11128,13 +11128,13 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C256" t="s">
         <v>1296</v>
       </c>
       <c r="D256" t="s">
-        <v>1029</v>
+        <v>2061</v>
       </c>
       <c r="E256" t="s">
         <v>2126</v>
@@ -11162,16 +11162,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C258" t="s">
         <v>1298</v>
       </c>
       <c r="D258" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="E258" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -11196,13 +11196,13 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C260" t="s">
         <v>1300</v>
       </c>
       <c r="D260" t="s">
-        <v>2064</v>
+        <v>2081</v>
       </c>
       <c r="E260" t="s">
         <v>2127</v>
@@ -11383,13 +11383,13 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C271" t="s">
         <v>1311</v>
       </c>
       <c r="D271" t="s">
-        <v>2081</v>
+        <v>1034</v>
       </c>
       <c r="E271" t="s">
         <v>2127</v>
@@ -11519,13 +11519,13 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C279" t="s">
         <v>1319</v>
       </c>
       <c r="D279" t="s">
-        <v>1034</v>
+        <v>2080</v>
       </c>
       <c r="E279" t="s">
         <v>2127</v>
@@ -11536,13 +11536,13 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C280" t="s">
         <v>1320</v>
       </c>
       <c r="D280" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="E280" t="s">
         <v>2127</v>
@@ -11553,13 +11553,13 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C281" t="s">
         <v>1321</v>
       </c>
       <c r="D281" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="E281" t="s">
         <v>2127</v>
@@ -11927,13 +11927,13 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C303" t="s">
         <v>1343</v>
       </c>
       <c r="D303" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="E303" t="s">
         <v>2127</v>
@@ -11944,13 +11944,13 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C304" t="s">
         <v>1344</v>
       </c>
       <c r="D304" t="s">
-        <v>2084</v>
+        <v>1036</v>
       </c>
       <c r="E304" t="s">
         <v>2127</v>
@@ -11961,13 +11961,13 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C305" t="s">
         <v>1345</v>
       </c>
       <c r="D305" t="s">
-        <v>1036</v>
+        <v>2085</v>
       </c>
       <c r="E305" t="s">
         <v>2127</v>
@@ -11978,16 +11978,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="C306" t="s">
         <v>1346</v>
       </c>
       <c r="D306" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E306" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -12001,7 +12001,7 @@
         <v>1347</v>
       </c>
       <c r="D307" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="E307" t="s">
         <v>2128</v>
@@ -12086,7 +12086,7 @@
         <v>1352</v>
       </c>
       <c r="D312" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="E312" t="s">
         <v>2128</v>
@@ -12103,10 +12103,10 @@
         <v>1353</v>
       </c>
       <c r="D313" t="s">
-        <v>2088</v>
+        <v>2063</v>
       </c>
       <c r="E313" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -14939,7 +14939,7 @@
         <v>1027</v>
       </c>
       <c r="C480" t="s">
-        <v>1520</v>
+        <v>1383</v>
       </c>
       <c r="D480" t="s">
         <v>2063</v>
@@ -14956,7 +14956,7 @@
         <v>1027</v>
       </c>
       <c r="C481" t="s">
-        <v>1384</v>
+        <v>1520</v>
       </c>
       <c r="D481" t="s">
         <v>2063</v>
@@ -15180,7 +15180,7 @@
         <v>1533</v>
       </c>
       <c r="D494" t="s">
-        <v>2063</v>
+        <v>2089</v>
       </c>
       <c r="E494" t="s">
         <v>2129</v>
@@ -15214,10 +15214,10 @@
         <v>1535</v>
       </c>
       <c r="D496" t="s">
-        <v>2089</v>
+        <v>2063</v>
       </c>
       <c r="E496" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -15259,13 +15259,13 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C499" t="s">
         <v>1538</v>
       </c>
       <c r="D499" t="s">
-        <v>2063</v>
+        <v>2080</v>
       </c>
       <c r="E499" t="s">
         <v>2130</v>
@@ -15514,7 +15514,7 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C514" t="s">
         <v>1553</v>
@@ -15531,7 +15531,7 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C515" t="s">
         <v>1554</v>
@@ -16347,7 +16347,7 @@
         <v>566</v>
       </c>
       <c r="B563" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C563" t="s">
         <v>1602</v>
@@ -16364,7 +16364,7 @@
         <v>567</v>
       </c>
       <c r="B564" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C564" t="s">
         <v>1603</v>
@@ -16387,7 +16387,7 @@
         <v>1604</v>
       </c>
       <c r="D565" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="E565" t="s">
         <v>2130</v>
@@ -16540,7 +16540,7 @@
         <v>1613</v>
       </c>
       <c r="D574" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
       <c r="E574" t="s">
         <v>2130</v>
@@ -16551,7 +16551,7 @@
         <v>578</v>
       </c>
       <c r="B575" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C575" t="s">
         <v>1614</v>
@@ -16568,13 +16568,13 @@
         <v>579</v>
       </c>
       <c r="B576" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C576" t="s">
         <v>1615</v>
       </c>
       <c r="D576" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="E576" t="s">
         <v>2130</v>
@@ -16591,7 +16591,7 @@
         <v>1616</v>
       </c>
       <c r="D577" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="E577" t="s">
         <v>2130</v>
@@ -16636,7 +16636,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C580" t="s">
         <v>1619</v>
@@ -16653,7 +16653,7 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C581" t="s">
         <v>1620</v>
@@ -16809,7 +16809,7 @@
         <v>1032</v>
       </c>
       <c r="C590" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="D590" t="s">
         <v>2092</v>
@@ -16826,7 +16826,7 @@
         <v>1032</v>
       </c>
       <c r="C591" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D591" t="s">
         <v>2092</v>
@@ -16840,16 +16840,16 @@
         <v>595</v>
       </c>
       <c r="B592" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C592" t="s">
         <v>1630</v>
       </c>
       <c r="D592" t="s">
-        <v>2092</v>
+        <v>2063</v>
       </c>
       <c r="E592" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -16874,13 +16874,13 @@
         <v>597</v>
       </c>
       <c r="B594" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C594" t="s">
         <v>1632</v>
       </c>
       <c r="D594" t="s">
-        <v>2063</v>
+        <v>2080</v>
       </c>
       <c r="E594" t="s">
         <v>2131</v>
@@ -17135,7 +17135,7 @@
         <v>1647</v>
       </c>
       <c r="D609" t="s">
-        <v>2080</v>
+        <v>2093</v>
       </c>
       <c r="E609" t="s">
         <v>2131</v>
@@ -17180,7 +17180,7 @@
         <v>615</v>
       </c>
       <c r="B612" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C612" t="s">
         <v>1650</v>
@@ -17197,7 +17197,7 @@
         <v>616</v>
       </c>
       <c r="B613" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C613" t="s">
         <v>1651</v>
@@ -17248,13 +17248,13 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C616" t="s">
         <v>1654</v>
       </c>
       <c r="D616" t="s">
-        <v>2093</v>
+        <v>2082</v>
       </c>
       <c r="E616" t="s">
         <v>2131</v>
@@ -17271,7 +17271,7 @@
         <v>1655</v>
       </c>
       <c r="D617" t="s">
-        <v>2082</v>
+        <v>2094</v>
       </c>
       <c r="E617" t="s">
         <v>2131</v>
@@ -17299,13 +17299,13 @@
         <v>622</v>
       </c>
       <c r="B619" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C619" t="s">
         <v>1657</v>
       </c>
       <c r="D619" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="E619" t="s">
         <v>2131</v>
@@ -17333,7 +17333,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C621" t="s">
         <v>1659</v>
@@ -17367,13 +17367,13 @@
         <v>626</v>
       </c>
       <c r="B623" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C623" t="s">
         <v>1661</v>
       </c>
       <c r="D623" t="s">
-        <v>2095</v>
+        <v>2084</v>
       </c>
       <c r="E623" t="s">
         <v>2131</v>
@@ -17520,13 +17520,13 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C632" t="s">
         <v>1670</v>
       </c>
       <c r="D632" t="s">
-        <v>2084</v>
+        <v>2096</v>
       </c>
       <c r="E632" t="s">
         <v>2131</v>
@@ -17724,13 +17724,13 @@
         <v>647</v>
       </c>
       <c r="B644" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C644" t="s">
         <v>1682</v>
       </c>
       <c r="D644" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="E644" t="s">
         <v>2131</v>
@@ -17741,7 +17741,7 @@
         <v>648</v>
       </c>
       <c r="B645" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C645" t="s">
         <v>1683</v>
@@ -17758,13 +17758,13 @@
         <v>649</v>
       </c>
       <c r="B646" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C646" t="s">
         <v>1684</v>
       </c>
       <c r="D646" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="E646" t="s">
         <v>2131</v>
@@ -17809,13 +17809,13 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C649" t="s">
         <v>1687</v>
       </c>
       <c r="D649" t="s">
-        <v>2091</v>
+        <v>2098</v>
       </c>
       <c r="E649" t="s">
         <v>2131</v>
@@ -17883,7 +17883,7 @@
         <v>1691</v>
       </c>
       <c r="D653" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="E653" t="s">
         <v>2131</v>
@@ -17911,16 +17911,16 @@
         <v>658</v>
       </c>
       <c r="B655" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C655" t="s">
         <v>1693</v>
       </c>
       <c r="D655" t="s">
-        <v>2099</v>
+        <v>2063</v>
       </c>
       <c r="E655" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -18047,13 +18047,13 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C663" t="s">
         <v>1701</v>
       </c>
       <c r="D663" t="s">
-        <v>2063</v>
+        <v>2100</v>
       </c>
       <c r="E663" t="s">
         <v>2132</v>
@@ -18251,13 +18251,13 @@
         <v>678</v>
       </c>
       <c r="B675" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="C675" t="s">
         <v>1713</v>
       </c>
       <c r="D675" t="s">
-        <v>2100</v>
+        <v>2080</v>
       </c>
       <c r="E675" t="s">
         <v>2132</v>
@@ -18274,7 +18274,7 @@
         <v>1714</v>
       </c>
       <c r="D676" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="E676" t="s">
         <v>2132</v>
@@ -18285,13 +18285,13 @@
         <v>680</v>
       </c>
       <c r="B677" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C677" t="s">
         <v>1715</v>
       </c>
       <c r="D677" t="s">
-        <v>2083</v>
+        <v>1029</v>
       </c>
       <c r="E677" t="s">
         <v>2132</v>
@@ -18404,13 +18404,13 @@
         <v>687</v>
       </c>
       <c r="B684" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="C684" t="s">
         <v>1722</v>
       </c>
       <c r="D684" t="s">
-        <v>1029</v>
+        <v>2101</v>
       </c>
       <c r="E684" t="s">
         <v>2132</v>
@@ -18489,13 +18489,13 @@
         <v>692</v>
       </c>
       <c r="B689" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C689" t="s">
         <v>1727</v>
       </c>
       <c r="D689" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E689" t="s">
         <v>2132</v>
@@ -18506,13 +18506,13 @@
         <v>693</v>
       </c>
       <c r="B690" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="C690" t="s">
         <v>1728</v>
       </c>
       <c r="D690" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="E690" t="s">
         <v>2132</v>
@@ -18557,13 +18557,13 @@
         <v>696</v>
       </c>
       <c r="B693" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="C693" t="s">
         <v>1731</v>
       </c>
       <c r="D693" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="E693" t="s">
         <v>2132</v>
@@ -18778,13 +18778,13 @@
         <v>709</v>
       </c>
       <c r="B706" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="C706" t="s">
         <v>1744</v>
       </c>
       <c r="D706" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="E706" t="s">
         <v>2132</v>
@@ -18795,13 +18795,13 @@
         <v>710</v>
       </c>
       <c r="B707" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C707" t="s">
         <v>1745</v>
       </c>
       <c r="D707" t="s">
-        <v>2092</v>
+        <v>2070</v>
       </c>
       <c r="E707" t="s">
         <v>2132</v>
@@ -18982,13 +18982,13 @@
         <v>721</v>
       </c>
       <c r="B718" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C718" t="s">
         <v>1756</v>
       </c>
       <c r="D718" t="s">
-        <v>2070</v>
+        <v>2105</v>
       </c>
       <c r="E718" t="s">
         <v>2132</v>
@@ -19107,10 +19107,10 @@
         <v>1763</v>
       </c>
       <c r="D725" t="s">
-        <v>2105</v>
+        <v>2063</v>
       </c>
       <c r="E725" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -19118,13 +19118,13 @@
         <v>729</v>
       </c>
       <c r="B726" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C726" t="s">
         <v>1764</v>
       </c>
       <c r="D726" t="s">
-        <v>2063</v>
+        <v>2106</v>
       </c>
       <c r="E726" t="s">
         <v>2133</v>
@@ -19220,13 +19220,13 @@
         <v>735</v>
       </c>
       <c r="B732" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C732" t="s">
         <v>1770</v>
       </c>
       <c r="D732" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="E732" t="s">
         <v>2133</v>
@@ -19294,7 +19294,7 @@
         <v>1774</v>
       </c>
       <c r="D736" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="E736" t="s">
         <v>2133</v>
@@ -19379,7 +19379,7 @@
         <v>1779</v>
       </c>
       <c r="D741" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="E741" t="s">
         <v>2133</v>
@@ -19424,13 +19424,13 @@
         <v>747</v>
       </c>
       <c r="B744" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C744" t="s">
         <v>1782</v>
       </c>
       <c r="D744" t="s">
-        <v>2109</v>
+        <v>2080</v>
       </c>
       <c r="E744" t="s">
         <v>2133</v>
@@ -19441,13 +19441,13 @@
         <v>748</v>
       </c>
       <c r="B745" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C745" t="s">
         <v>1783</v>
       </c>
       <c r="D745" t="s">
-        <v>2080</v>
+        <v>1029</v>
       </c>
       <c r="E745" t="s">
         <v>2133</v>
@@ -19645,13 +19645,13 @@
         <v>760</v>
       </c>
       <c r="B757" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C757" t="s">
         <v>1795</v>
       </c>
       <c r="D757" t="s">
-        <v>1029</v>
+        <v>2110</v>
       </c>
       <c r="E757" t="s">
         <v>2133</v>
@@ -19713,13 +19713,13 @@
         <v>764</v>
       </c>
       <c r="B761" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C761" t="s">
         <v>1799</v>
       </c>
       <c r="D761" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="E761" t="s">
         <v>2133</v>
@@ -19736,7 +19736,7 @@
         <v>1800</v>
       </c>
       <c r="D762" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="E762" t="s">
         <v>2133</v>
@@ -19781,13 +19781,13 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C765" t="s">
         <v>1803</v>
       </c>
       <c r="D765" t="s">
-        <v>2071</v>
+        <v>2111</v>
       </c>
       <c r="E765" t="s">
         <v>2133</v>
@@ -19821,10 +19821,10 @@
         <v>1805</v>
       </c>
       <c r="D767" t="s">
-        <v>2111</v>
+        <v>2063</v>
       </c>
       <c r="E767" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -19849,13 +19849,13 @@
         <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="C769" t="s">
         <v>1807</v>
       </c>
       <c r="D769" t="s">
-        <v>2063</v>
+        <v>2080</v>
       </c>
       <c r="E769" t="s">
         <v>2134</v>
@@ -19866,13 +19866,13 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="C770" t="s">
         <v>1808</v>
       </c>
       <c r="D770" t="s">
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="E770" t="s">
         <v>2134</v>
@@ -20019,13 +20019,13 @@
         <v>782</v>
       </c>
       <c r="B779" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="C779" t="s">
         <v>1817</v>
       </c>
       <c r="D779" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E779" t="s">
         <v>2134</v>
@@ -20036,13 +20036,13 @@
         <v>783</v>
       </c>
       <c r="B780" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="C780" t="s">
         <v>1818</v>
       </c>
       <c r="D780" t="s">
-        <v>2113</v>
+        <v>2097</v>
       </c>
       <c r="E780" t="s">
         <v>2134</v>
@@ -20059,7 +20059,7 @@
         <v>1819</v>
       </c>
       <c r="D781" t="s">
-        <v>2097</v>
+        <v>2114</v>
       </c>
       <c r="E781" t="s">
         <v>2134</v>
@@ -20093,7 +20093,7 @@
         <v>1821</v>
       </c>
       <c r="D783" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="E783" t="s">
         <v>2134</v>
@@ -20104,13 +20104,13 @@
         <v>787</v>
       </c>
       <c r="B784" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C784" t="s">
         <v>1822</v>
       </c>
       <c r="D784" t="s">
-        <v>2115</v>
+        <v>2085</v>
       </c>
       <c r="E784" t="s">
         <v>2134</v>
@@ -20447,7 +20447,7 @@
         <v>1037</v>
       </c>
       <c r="C804" t="s">
-        <v>1842</v>
+        <v>1357</v>
       </c>
       <c r="D804" t="s">
         <v>2085</v>
@@ -20464,7 +20464,7 @@
         <v>1037</v>
       </c>
       <c r="C805" t="s">
-        <v>1358</v>
+        <v>1842</v>
       </c>
       <c r="D805" t="s">
         <v>2085</v>
@@ -20682,16 +20682,16 @@
         <v>821</v>
       </c>
       <c r="B818" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="C818" t="s">
         <v>1855</v>
       </c>
       <c r="D818" t="s">
-        <v>2085</v>
+        <v>2063</v>
       </c>
       <c r="E818" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="819" spans="1:5">
@@ -20716,13 +20716,13 @@
         <v>823</v>
       </c>
       <c r="B820" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="C820" t="s">
         <v>1857</v>
       </c>
       <c r="D820" t="s">
-        <v>2063</v>
+        <v>1034</v>
       </c>
       <c r="E820" t="s">
         <v>2135</v>
@@ -20923,7 +20923,7 @@
         <v>1034</v>
       </c>
       <c r="C832" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D832" t="s">
         <v>1034</v>
@@ -20940,7 +20940,7 @@
         <v>1034</v>
       </c>
       <c r="C833" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="D833" t="s">
         <v>1034</v>
@@ -20974,7 +20974,7 @@
         <v>1034</v>
       </c>
       <c r="C835" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="D835" t="s">
         <v>1034</v>
@@ -20991,7 +20991,7 @@
         <v>1034</v>
       </c>
       <c r="C836" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="D836" t="s">
         <v>1034</v>
@@ -21039,13 +21039,13 @@
         <v>842</v>
       </c>
       <c r="B839" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C839" t="s">
         <v>1874</v>
       </c>
       <c r="D839" t="s">
-        <v>1034</v>
+        <v>2116</v>
       </c>
       <c r="E839" t="s">
         <v>2135</v>
@@ -21073,13 +21073,13 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C841" t="s">
         <v>1876</v>
       </c>
       <c r="D841" t="s">
-        <v>2116</v>
+        <v>1041</v>
       </c>
       <c r="E841" t="s">
         <v>2135</v>
@@ -21277,13 +21277,13 @@
         <v>856</v>
       </c>
       <c r="B853" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C853" t="s">
         <v>1888</v>
       </c>
       <c r="D853" t="s">
-        <v>1041</v>
+        <v>2117</v>
       </c>
       <c r="E853" t="s">
         <v>2135</v>
@@ -21532,13 +21532,13 @@
         <v>871</v>
       </c>
       <c r="B868" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="C868" t="s">
         <v>1903</v>
       </c>
       <c r="D868" t="s">
-        <v>2117</v>
+        <v>1029</v>
       </c>
       <c r="E868" t="s">
         <v>2135</v>
@@ -21722,7 +21722,7 @@
         <v>1029</v>
       </c>
       <c r="C879" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D879" t="s">
         <v>1029</v>
@@ -21739,7 +21739,7 @@
         <v>1029</v>
       </c>
       <c r="C880" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="D880" t="s">
         <v>1029</v>

--- a/pali-class/vocab/vocab-class18.xlsx
+++ b/pali-class/vocab/vocab-class18.xlsx
@@ -235,12 +235,18 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
     <t>pubba 1.1</t>
   </si>
   <si>
     <t>sampajāna 1</t>
   </si>
   <si>
+    <t>appiya 1</t>
+  </si>
+  <si>
     <t>piya 2</t>
   </si>
   <si>
@@ -259,9 +265,6 @@
     <t>anavajja 1</t>
   </si>
   <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -310,9 +313,6 @@
     <t>dukkha 2</t>
   </si>
   <si>
-    <t>appiya 1</t>
-  </si>
-  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -391,36 +391,36 @@
     <t>appamatta 1.1</t>
   </si>
   <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
     <t>vutta 2.1</t>
   </si>
   <si>
@@ -643,12 +643,12 @@
     <t>dissati 2</t>
   </si>
   <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -1597,120 +1597,120 @@
     <t>gaṇhati 1</t>
   </si>
   <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>paṭinissajjati</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>pakkhandati 1</t>
   </si>
   <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>paṭinissajjati</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -1948,15 +1948,15 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
     <t>kucchi 1</t>
   </si>
   <si>
     <t>isi</t>
   </si>
   <si>
-    <t>sārathi 1</t>
-  </si>
-  <si>
     <t>gāmaṇi</t>
   </si>
   <si>
@@ -3352,12 +3352,18 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
     <t>before; previous; earlier; former</t>
   </si>
   <si>
     <t>clearly aware; fully knowing; completely comprehending</t>
   </si>
   <si>
+    <t>not dear (to); unloved (by); disliked (by)</t>
+  </si>
+  <si>
     <t>liked; pleasant; agreeable</t>
   </si>
   <si>
@@ -3376,9 +3382,6 @@
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for; lit. wished</t>
   </si>
   <si>
@@ -3427,9 +3430,6 @@
     <t>painful</t>
   </si>
   <si>
-    <t>not dear (to); unloved (by); disliked (by)</t>
-  </si>
-  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -3508,36 +3508,36 @@
     <t>diligent (in); vigilant (about); careful (about); attentive (to); lit. not intoxicated</t>
   </si>
   <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
@@ -3760,12 +3760,12 @@
     <t>seems; lit. is seen</t>
   </si>
   <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -4708,120 +4708,120 @@
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>gives up; relinquishes; drops; abandons</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
   </si>
   <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>gives up; relinquishes; drops; abandons</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -4990,7 +4990,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>
@@ -5056,13 +5056,13 @@
     <t>fire</t>
   </si>
   <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
     <t>stomach; belly</t>
   </si>
   <si>
     <t>seer; sage</t>
-  </si>
-  <si>
-    <t>charioteer; driver</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>

--- a/pali-class/vocab/vocab-class18.xlsx
+++ b/pali-class/vocab/vocab-class18.xlsx
@@ -2779,129 +2779,129 @@
     <t>aṅga 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -5881,127 +5881,127 @@
     <t>part of the body; limb</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class18.xlsx
+++ b/pali-class/vocab/vocab-class18.xlsx
@@ -499,12 +499,12 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>attato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>anattato</t>
   </si>
   <si>
@@ -805,33 +805,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -1939,33 +1939,33 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>sārathi 2</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -3451,7 +3451,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -3619,12 +3619,12 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as oneself; as self</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
@@ -3814,7 +3814,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -3922,33 +3922,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -5050,33 +5050,33 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>(horse or elephant) trainer</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5185,10 +5185,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -5695,7 +5695,7 @@
     <t>rain; rainfall</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -6127,10 +6127,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -6160,7 +6160,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class18.xlsx
+++ b/pali-class/vocab/vocab-class18.xlsx
@@ -406,6 +406,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -781,15 +781,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>yebhuyyena</t>
   </si>
   <si>
@@ -1060,399 +1060,399 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>sara 2.1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>sara 2.1</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1594,6 +1594,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1633,96 +1636,93 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1837,6 +1837,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1849,9 +1852,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>muñcati 2</t>
   </si>
   <si>
@@ -2035,24 +2035,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2224,6 +2224,9 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
@@ -2233,9 +2236,6 @@
     <t>iddhimant</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2554,9 +2554,15 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
     <t>nissāya 1</t>
   </si>
   <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -2575,15 +2581,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2656,18 +2656,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -2830,6 +2830,9 @@
     <t>vera</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -3010,9 +3013,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -3526,6 +3526,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3565,9 +3568,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3604,12 +3604,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -3898,15 +3898,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
   </si>
   <si>
@@ -4177,396 +4177,396 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>sound; voice; tone</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>sound; voice; tone</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -4708,6 +4708,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -4747,96 +4750,93 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4948,6 +4948,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -4960,9 +4963,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>gets angry (with); lit. releases</t>
   </si>
   <si>
@@ -5146,24 +5146,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5335,6 +5335,9 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
@@ -5344,9 +5347,6 @@
     <t>who has psychic powers; possessing supernatural ability; lit. having power quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -5659,9 +5659,15 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
     <t>leaning (on); depending (on); being supported (by)</t>
   </si>
   <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -5680,15 +5686,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -5761,15 +5761,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -5932,6 +5932,9 @@
     <t>hatred; ill-will; animosity; hostility</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -6110,9 +6113,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -13609,7 +13609,7 @@
         <v>1029</v>
       </c>
       <c r="C400" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="D400" t="s">
         <v>2068</v>
@@ -13626,7 +13626,7 @@
         <v>1029</v>
       </c>
       <c r="C401" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D401" t="s">
         <v>2068</v>
@@ -13643,7 +13643,7 @@
         <v>1029</v>
       </c>
       <c r="C402" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
       <c r="D402" t="s">
         <v>2068</v>
@@ -16394,7 +16394,7 @@
         <v>567</v>
       </c>
       <c r="B564" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C564" t="s">
         <v>1605</v>
@@ -16411,7 +16411,7 @@
         <v>568</v>
       </c>
       <c r="B565" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C565" t="s">
         <v>1606</v>
@@ -20562,7 +20562,7 @@
         <v>1039</v>
       </c>
       <c r="C809" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D809" t="s">
         <v>2091</v>
@@ -21735,7 +21735,7 @@
         <v>1031</v>
       </c>
       <c r="C878" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D878" t="s">
         <v>1031</v>
@@ -21752,7 +21752,7 @@
         <v>1031</v>
       </c>
       <c r="C879" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="D879" t="s">
         <v>1031</v>
